--- a/QRE/200KB 10ms delay log/200KB 10ms delay graphs.xlsx
+++ b/QRE/200KB 10ms delay log/200KB 10ms delay graphs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Technion\Semester7\CommunicationProject\LCCN-QUIC-Spin-Bit\QRE\200KB 10ms delay log\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF32B734-E051-47AA-810A-0737634A08FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B276720B-C92E-4165-949D-000756A9E06A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{AB2801C7-E69A-4074-8E8C-F35E77EEBF86}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="17">
   <si>
     <t>QRE S2C</t>
   </si>
@@ -70,10 +70,19 @@
     <t>QRE C2S</t>
   </si>
   <si>
-    <t>Extend:</t>
+    <t>Pre-extend:</t>
   </si>
   <si>
-    <t>Pre-extend:</t>
+    <t>timestamps</t>
+  </si>
+  <si>
+    <t>qlog</t>
+  </si>
+  <si>
+    <t>Table for Presentation</t>
+  </si>
+  <si>
+    <t>QRE</t>
   </si>
 </sst>
 </file>
@@ -157,6 +166,61 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Server to Client 10ms Delay</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="LID4096"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
@@ -164,10 +228,10 @@
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="0"/>
+          <c:idx val="1"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>qlog</c:v>
+            <c:v>QRE</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -195,204 +259,120 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$J$4:$J$34</c:f>
+              <c:f>Sheet1!$F$4:$F$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
-                  <c:v>43.47</c:v>
+                  <c:v>234.0529999999996</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>203.17</c:v>
+                  <c:v>278.14099999999996</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>238.17</c:v>
+                  <c:v>318.77900000000125</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>253.14</c:v>
+                  <c:v>349.74599999999987</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>278.2</c:v>
+                  <c:v>377.48900000000083</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>302.52</c:v>
+                  <c:v>411.25200000000132</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>309.7</c:v>
+                  <c:v>440.46700000000016</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>321.92</c:v>
+                  <c:v>477.84200000000101</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>337.7</c:v>
+                  <c:v>502.1600000000002</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>357.2</c:v>
+                  <c:v>538.29800000000125</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>370.92</c:v>
+                  <c:v>565.5859999999999</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>386.16</c:v>
+                  <c:v>597.75400000000036</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>416.71</c:v>
+                  <c:v>627.11500000000012</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>437.06</c:v>
+                  <c:v>670.29100000000085</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>448.47</c:v>
+                  <c:v>693.47200000000009</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>462.22</c:v>
+                  <c:v>727.89900000000091</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>483.48</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>498.2</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>509.73</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>525.49</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>556.84</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>582.91999999999996</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>587.83000000000004</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>607.03</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>630.26</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>637</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>653.49</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>664.75</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>687.78</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>712.05</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>727.75</c:v>
+                  <c:v>752.09500000000082</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$I$4:$I$34</c:f>
+              <c:f>Sheet1!$D$4:$D$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
-                  <c:v>36.688000000000002</c:v>
+                  <c:v>183.30399999999969</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>39.985999999999997</c:v>
+                  <c:v>44.088000000000349</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>38.316000000000003</c:v>
+                  <c:v>40.638000000001284</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>37.698</c:v>
+                  <c:v>30.966999999998635</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>36.155999999999999</c:v>
+                  <c:v>27.743000000000961</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>35.018999999999998</c:v>
+                  <c:v>33.763000000000432</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>33.777999999999999</c:v>
+                  <c:v>29.214999999998881</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>33.435000000000002</c:v>
+                  <c:v>37.375000000000824</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>32.738999999999997</c:v>
+                  <c:v>24.317999999999174</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>33.040999999999997</c:v>
+                  <c:v>36.138000000001114</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>31.969000000000001</c:v>
+                  <c:v>27.287999999998647</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>31.03</c:v>
+                  <c:v>32.168000000000418</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>29.704000000000001</c:v>
+                  <c:v>29.360999999999748</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>30.201000000000001</c:v>
+                  <c:v>43.176000000000769</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>30.382000000000001</c:v>
+                  <c:v>23.18099999999923</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>29.712</c:v>
+                  <c:v>34.427000000000874</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>29.942</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>30.262</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>29.745999999999999</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>28.997</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>28.391999999999999</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>28.853000000000002</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>28.806999999999999</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>28.202999999999999</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>27.666</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>27.329000000000001</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>26.797999999999998</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>26.331</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>25.898</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>25.672999999999998</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>26.856999999999999</c:v>
+                  <c:v>24.195999999999884</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -400,15 +380,15 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-0CCC-4DA2-AF7D-EC5E4967380F}"/>
+              <c16:uniqueId val="{00000002-0CCC-4DA2-AF7D-EC5E4967380F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="1"/>
+          <c:idx val="2"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>QRE</c:v>
+            <c:v>Wireshark</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -557,7 +537,251 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-0CCC-4DA2-AF7D-EC5E4967380F}"/>
+              <c16:uniqueId val="{00000001-A408-4D30-A26C-AAB633E74B6F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>qlog</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$J$4:$J$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>43.47</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>203.17</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>238.17</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>253.14</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>278.2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>302.52</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>309.7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>321.92</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>337.7</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>357.2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>370.92</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>386.16</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>399.93</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>416.71</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>437.06</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>448.47</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>462.22</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>483.48</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>498.2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>509.73</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>525.49</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>556.84</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>582.91999999999996</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>587.83000000000004</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>607.03</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>630.26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>637</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>653.49</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>664.75</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>687.78</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>712.05</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>727.75</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$I$4:$I$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>36.689</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>63.073999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>26.622</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>33.371000000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25.361999999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>27.064</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>25.088999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>31.036999999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>27.864000000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>35.156999999999996</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>24.460999999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>24.456</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>24.559000000000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>26.088000000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>33.680999999999997</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>31.643999999999998</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>25.026</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>31.553999999999998</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>32.5</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>26.13</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>23.756</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>24.158999999999999</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>32.079000000000001</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>28.483000000000001</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>23.975000000000001</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>23.911999999999999</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>24.965</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>23.082999999999998</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>23.059000000000001</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>22.873000000000001</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>24.097000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0CCC-4DA2-AF7D-EC5E4967380F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -614,7 +838,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Time since connection started (ms)</a:t>
+                  <a:t>Time since connection initiated (ms)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -903,6 +1127,61 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Client to Server 10ms Delay</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="LID4096"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
@@ -910,10 +1189,10 @@
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="0"/>
+          <c:idx val="1"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>qlog</c:v>
+            <c:v>QRE</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -929,7 +1208,9 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:schemeClr val="accent2">
+                  <a:alpha val="95000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
@@ -941,42 +1222,120 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$J$39:$J$42</c:f>
+              <c:f>Sheet1!$F$39:$F$55</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
-                  <c:v>82.01</c:v>
+                  <c:v>281.0710000000002</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>265.45</c:v>
+                  <c:v>321.71900000000107</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>266.37</c:v>
+                  <c:v>351.79099999999983</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>781.36900000000003</c:v>
+                  <c:v>380.64200000000113</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>414.17100000000084</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>442.73299999999989</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>479.30199999999996</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>505.37299999999993</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>541.65299999999968</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>568.97300000000098</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>599.9820000000002</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>630.85299999999961</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>673.29200000000128</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>697.29900000000043</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>731.65400000000022</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>755.02000000000135</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>781.36900000000105</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$I$39:$I$42</c:f>
+              <c:f>Sheet1!$C$39:$C$55</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
-                  <c:v>47</c:v>
+                  <c:v>48.960999999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>45.125</c:v>
+                  <c:v>40.648000000000003</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43.484000000000002</c:v>
+                  <c:v>30.071999999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43.484000000000002</c:v>
+                  <c:v>28.850999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>33.529000000000003</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>28.562000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>36.569000000000003</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>26.071000000000002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>36.28</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>27.32</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>31.009</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>30.870999999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>42.439</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>24.007000000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>34.354999999999997</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>23.366</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>26.349</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -984,15 +1343,15 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-C0C2-40D3-AF99-BAE208A47599}"/>
+              <c16:uniqueId val="{00000002-9F1A-43EB-8554-8681582A97CE}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="1"/>
+          <c:idx val="2"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>QRE</c:v>
+            <c:v>Wireshark</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -1012,7 +1371,9 @@
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent1"/>
+                  <a:schemeClr val="accent1">
+                    <a:alpha val="94000"/>
+                  </a:schemeClr>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -1141,7 +1502,80 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-C0C2-40D3-AF99-BAE208A47599}"/>
+              <c16:uniqueId val="{00000004-9F1A-43EB-8554-8681582A97CE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>qlog</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$J$39:$J$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>82.01</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>265.45</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>266.37</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$I$39:$I$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C0C2-40D3-AF99-BAE208A47599}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2625,16 +3059,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>321128</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>68035</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>16328</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>68035</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2959,15 +3393,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F82EC78-6D9F-469D-BCA8-89E19474F234}">
-  <dimension ref="B3:N74"/>
+  <dimension ref="B3:X80"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="R30" sqref="R30"/>
+      <selection activeCell="Q29" sqref="Q29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="3" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="3:24" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>0</v>
       </c>
@@ -2986,8 +3420,14 @@
       <c r="J3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="U3" t="s">
+        <v>15</v>
+      </c>
+      <c r="V3" s="2"/>
+      <c r="W3" s="2"/>
+      <c r="X3" s="1"/>
+    </row>
+    <row r="4" spans="3:24" x14ac:dyDescent="0.3">
       <c r="C4">
         <v>183.304</v>
       </c>
@@ -3003,18 +3443,30 @@
         <v>234.0529999999996</v>
       </c>
       <c r="I4">
-        <v>36.688000000000002</v>
+        <v>36.689</v>
       </c>
       <c r="J4">
         <v>43.47</v>
       </c>
-    </row>
-    <row r="5" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="U4" t="s">
+        <v>13</v>
+      </c>
+      <c r="V4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="W4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="X4" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="3:24" x14ac:dyDescent="0.3">
       <c r="C5">
         <v>44.088000000000001</v>
       </c>
       <c r="D5">
-        <f>(E5-E4)*1000</f>
+        <f t="shared" ref="D5:D20" si="0">(E5-E4)*1000</f>
         <v>44.088000000000349</v>
       </c>
       <c r="E5">
@@ -3025,18 +3477,24 @@
         <v>278.14099999999996</v>
       </c>
       <c r="I5">
-        <v>39.985999999999997</v>
+        <v>63.073999999999998</v>
       </c>
       <c r="J5">
         <v>203.17</v>
       </c>
-    </row>
-    <row r="6" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="U5">
+        <v>43.47</v>
+      </c>
+      <c r="X5">
+        <v>36.689</v>
+      </c>
+    </row>
+    <row r="6" spans="3:24" x14ac:dyDescent="0.3">
       <c r="C6">
         <v>40.637999999999998</v>
       </c>
       <c r="D6">
-        <f>(E6-E5)*1000</f>
+        <f t="shared" si="0"/>
         <v>40.638000000001284</v>
       </c>
       <c r="E6">
@@ -3047,18 +3505,24 @@
         <v>318.77900000000125</v>
       </c>
       <c r="I6">
-        <v>38.316000000000003</v>
+        <v>26.622</v>
       </c>
       <c r="J6">
         <v>238.17</v>
       </c>
-    </row>
-    <row r="7" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="U6">
+        <v>203.17</v>
+      </c>
+      <c r="X6">
+        <v>63.073999999999998</v>
+      </c>
+    </row>
+    <row r="7" spans="3:24" x14ac:dyDescent="0.3">
       <c r="C7">
         <v>30.966999999999999</v>
       </c>
       <c r="D7">
-        <f>(E7-E6)*1000</f>
+        <f t="shared" si="0"/>
         <v>30.966999999998635</v>
       </c>
       <c r="E7">
@@ -3069,18 +3533,27 @@
         <v>349.74599999999987</v>
       </c>
       <c r="I7">
-        <v>37.698</v>
+        <v>33.371000000000002</v>
       </c>
       <c r="J7">
         <v>253.14</v>
       </c>
-    </row>
-    <row r="8" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="U7">
+        <v>234.0529999999996</v>
+      </c>
+      <c r="V7">
+        <v>183.304</v>
+      </c>
+      <c r="W7">
+        <v>183.30399999999969</v>
+      </c>
+    </row>
+    <row r="8" spans="3:24" x14ac:dyDescent="0.3">
       <c r="C8">
         <v>27.742999999999999</v>
       </c>
       <c r="D8">
-        <f>(E8-E7)*1000</f>
+        <f t="shared" si="0"/>
         <v>27.743000000000961</v>
       </c>
       <c r="E8">
@@ -3091,18 +3564,24 @@
         <v>377.48900000000083</v>
       </c>
       <c r="I8">
-        <v>36.155999999999999</v>
+        <v>25.361999999999998</v>
       </c>
       <c r="J8">
         <v>278.2</v>
       </c>
-    </row>
-    <row r="9" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="U8">
+        <v>238.17</v>
+      </c>
+      <c r="X8">
+        <v>26.622</v>
+      </c>
+    </row>
+    <row r="9" spans="3:24" x14ac:dyDescent="0.3">
       <c r="C9">
         <v>33.762999999999998</v>
       </c>
       <c r="D9">
-        <f>(E9-E8)*1000</f>
+        <f t="shared" si="0"/>
         <v>33.763000000000432</v>
       </c>
       <c r="E9">
@@ -3113,18 +3592,24 @@
         <v>411.25200000000132</v>
       </c>
       <c r="I9">
-        <v>35.018999999999998</v>
+        <v>27.064</v>
       </c>
       <c r="J9">
         <v>302.52</v>
       </c>
-    </row>
-    <row r="10" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="U9">
+        <v>253.14</v>
+      </c>
+      <c r="X9">
+        <v>33.371000000000002</v>
+      </c>
+    </row>
+    <row r="10" spans="3:24" x14ac:dyDescent="0.3">
       <c r="C10">
         <v>29.215</v>
       </c>
       <c r="D10">
-        <f>(E10-E9)*1000</f>
+        <f t="shared" si="0"/>
         <v>29.214999999998881</v>
       </c>
       <c r="E10">
@@ -3135,18 +3620,27 @@
         <v>440.46700000000016</v>
       </c>
       <c r="I10">
-        <v>33.777999999999999</v>
+        <v>25.088999999999999</v>
       </c>
       <c r="J10">
         <v>309.7</v>
       </c>
-    </row>
-    <row r="11" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="U10">
+        <v>278.14099999999996</v>
+      </c>
+      <c r="V10">
+        <v>44.088000000000001</v>
+      </c>
+      <c r="W10">
+        <v>44.088000000000349</v>
+      </c>
+    </row>
+    <row r="11" spans="3:24" x14ac:dyDescent="0.3">
       <c r="C11">
         <v>37.375</v>
       </c>
       <c r="D11">
-        <f>(E11-E10)*1000</f>
+        <f t="shared" si="0"/>
         <v>37.375000000000824</v>
       </c>
       <c r="E11">
@@ -3157,18 +3651,24 @@
         <v>477.84200000000101</v>
       </c>
       <c r="I11">
-        <v>33.435000000000002</v>
+        <v>31.036999999999999</v>
       </c>
       <c r="J11">
         <v>321.92</v>
       </c>
-    </row>
-    <row r="12" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="U11">
+        <v>278.2</v>
+      </c>
+      <c r="X11">
+        <v>25.361999999999998</v>
+      </c>
+    </row>
+    <row r="12" spans="3:24" x14ac:dyDescent="0.3">
       <c r="C12">
         <v>24.318000000000001</v>
       </c>
       <c r="D12">
-        <f>(E12-E11)*1000</f>
+        <f t="shared" si="0"/>
         <v>24.317999999999174</v>
       </c>
       <c r="E12">
@@ -3179,18 +3679,24 @@
         <v>502.1600000000002</v>
       </c>
       <c r="I12">
-        <v>32.738999999999997</v>
+        <v>27.864000000000001</v>
       </c>
       <c r="J12">
         <v>337.7</v>
       </c>
-    </row>
-    <row r="13" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="U12">
+        <v>302.52</v>
+      </c>
+      <c r="X12">
+        <v>27.064</v>
+      </c>
+    </row>
+    <row r="13" spans="3:24" x14ac:dyDescent="0.3">
       <c r="C13">
         <v>36.137999999999998</v>
       </c>
       <c r="D13">
-        <f>(E13-E12)*1000</f>
+        <f t="shared" si="0"/>
         <v>36.138000000001114</v>
       </c>
       <c r="E13">
@@ -3201,18 +3707,24 @@
         <v>538.29800000000125</v>
       </c>
       <c r="I13">
-        <v>33.040999999999997</v>
+        <v>35.156999999999996</v>
       </c>
       <c r="J13">
         <v>357.2</v>
       </c>
-    </row>
-    <row r="14" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="U13">
+        <v>309.7</v>
+      </c>
+      <c r="X13">
+        <v>25.088999999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="3:24" x14ac:dyDescent="0.3">
       <c r="C14">
         <v>27.288</v>
       </c>
       <c r="D14">
-        <f>(E14-E13)*1000</f>
+        <f t="shared" si="0"/>
         <v>27.287999999998647</v>
       </c>
       <c r="E14">
@@ -3223,18 +3735,27 @@
         <v>565.5859999999999</v>
       </c>
       <c r="I14">
-        <v>31.969000000000001</v>
+        <v>24.460999999999999</v>
       </c>
       <c r="J14">
         <v>370.92</v>
       </c>
-    </row>
-    <row r="15" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="U14">
+        <v>318.77900000000125</v>
+      </c>
+      <c r="V14">
+        <v>40.637999999999998</v>
+      </c>
+      <c r="W14">
+        <v>40.638000000001284</v>
+      </c>
+    </row>
+    <row r="15" spans="3:24" x14ac:dyDescent="0.3">
       <c r="C15">
         <v>32.167999999999999</v>
       </c>
       <c r="D15">
-        <f>(E15-E14)*1000</f>
+        <f t="shared" si="0"/>
         <v>32.168000000000418</v>
       </c>
       <c r="E15">
@@ -3245,18 +3766,24 @@
         <v>597.75400000000036</v>
       </c>
       <c r="I15">
-        <v>31.03</v>
+        <v>24.456</v>
       </c>
       <c r="J15">
         <v>386.16</v>
       </c>
-    </row>
-    <row r="16" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="U15">
+        <v>321.92</v>
+      </c>
+      <c r="X15">
+        <v>31.036999999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="3:24" x14ac:dyDescent="0.3">
       <c r="C16">
         <v>29.361000000000001</v>
       </c>
       <c r="D16">
-        <f>(E16-E15)*1000</f>
+        <f t="shared" si="0"/>
         <v>29.360999999999748</v>
       </c>
       <c r="E16">
@@ -3267,18 +3794,24 @@
         <v>627.11500000000012</v>
       </c>
       <c r="I16">
-        <v>29.704000000000001</v>
+        <v>24.559000000000001</v>
       </c>
       <c r="J16">
-        <v>416.71</v>
-      </c>
-    </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.3">
+        <v>399.93</v>
+      </c>
+      <c r="U16">
+        <v>337.7</v>
+      </c>
+      <c r="X16">
+        <v>27.864000000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="2:24" x14ac:dyDescent="0.3">
       <c r="C17">
         <v>43.176000000000002</v>
       </c>
       <c r="D17">
-        <f>(E17-E16)*1000</f>
+        <f t="shared" si="0"/>
         <v>43.176000000000769</v>
       </c>
       <c r="E17">
@@ -3289,18 +3822,27 @@
         <v>670.29100000000085</v>
       </c>
       <c r="I17">
-        <v>30.201000000000001</v>
+        <v>26.088000000000001</v>
       </c>
       <c r="J17">
-        <v>437.06</v>
-      </c>
-    </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.3">
+        <v>416.71</v>
+      </c>
+      <c r="U17">
+        <v>349.74599999999987</v>
+      </c>
+      <c r="V17">
+        <v>30.966999999999999</v>
+      </c>
+      <c r="W17">
+        <v>30.966999999998635</v>
+      </c>
+    </row>
+    <row r="18" spans="2:24" x14ac:dyDescent="0.3">
       <c r="C18">
         <v>23.181000000000001</v>
       </c>
       <c r="D18">
-        <f>(E18-E17)*1000</f>
+        <f t="shared" si="0"/>
         <v>23.18099999999923</v>
       </c>
       <c r="E18">
@@ -3311,18 +3853,24 @@
         <v>693.47200000000009</v>
       </c>
       <c r="I18">
-        <v>30.382000000000001</v>
+        <v>33.680999999999997</v>
       </c>
       <c r="J18">
-        <v>448.47</v>
-      </c>
-    </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.3">
+        <v>437.06</v>
+      </c>
+      <c r="U18">
+        <v>357.2</v>
+      </c>
+      <c r="X18">
+        <v>35.156999999999996</v>
+      </c>
+    </row>
+    <row r="19" spans="2:24" x14ac:dyDescent="0.3">
       <c r="C19">
         <v>34.427</v>
       </c>
       <c r="D19">
-        <f>(E19-E18)*1000</f>
+        <f t="shared" si="0"/>
         <v>34.427000000000874</v>
       </c>
       <c r="E19">
@@ -3333,18 +3881,24 @@
         <v>727.89900000000091</v>
       </c>
       <c r="I19">
-        <v>29.712</v>
+        <v>31.643999999999998</v>
       </c>
       <c r="J19">
-        <v>462.22</v>
-      </c>
-    </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.3">
+        <v>448.47</v>
+      </c>
+      <c r="U19">
+        <v>370.92</v>
+      </c>
+      <c r="X19">
+        <v>24.460999999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="2:24" x14ac:dyDescent="0.3">
       <c r="C20">
         <v>24.196000000000002</v>
       </c>
       <c r="D20">
-        <f>(E20-E19)*1000</f>
+        <f t="shared" si="0"/>
         <v>24.195999999999884</v>
       </c>
       <c r="E20">
@@ -3355,45 +3909,81 @@
         <v>752.09500000000082</v>
       </c>
       <c r="I20">
-        <v>29.942</v>
+        <v>25.026</v>
       </c>
       <c r="J20">
+        <v>462.22</v>
+      </c>
+      <c r="U20">
+        <v>377.48900000000083</v>
+      </c>
+      <c r="V20">
+        <v>27.742999999999999</v>
+      </c>
+      <c r="W20">
+        <v>27.743000000000961</v>
+      </c>
+    </row>
+    <row r="21" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="I21">
+        <v>31.553999999999998</v>
+      </c>
+      <c r="J21">
         <v>483.48</v>
       </c>
-    </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="I21">
-        <v>30.262</v>
-      </c>
-      <c r="J21">
+      <c r="U21">
+        <v>386.16</v>
+      </c>
+      <c r="X21">
+        <v>24.456</v>
+      </c>
+    </row>
+    <row r="22" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="I22">
+        <v>32.5</v>
+      </c>
+      <c r="J22">
         <v>498.2</v>
       </c>
-    </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="I22">
-        <v>29.745999999999999</v>
-      </c>
-      <c r="J22">
+      <c r="U22">
+        <v>399.93</v>
+      </c>
+      <c r="X22">
+        <v>24.559000000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="I23">
+        <v>26.13</v>
+      </c>
+      <c r="J23">
         <v>509.73</v>
       </c>
-    </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="I23">
-        <v>28.997</v>
-      </c>
-      <c r="J23">
+      <c r="U23">
+        <v>411.25200000000132</v>
+      </c>
+      <c r="V23">
+        <v>33.762999999999998</v>
+      </c>
+      <c r="W23">
+        <v>33.763000000000432</v>
+      </c>
+    </row>
+    <row r="24" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="I24">
+        <v>23.756</v>
+      </c>
+      <c r="J24">
         <v>525.49</v>
       </c>
-    </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="I24">
-        <v>28.391999999999999</v>
-      </c>
-      <c r="J24">
-        <v>556.84</v>
-      </c>
-    </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="U24">
+        <v>416.71</v>
+      </c>
+      <c r="X24">
+        <v>26.088000000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
         <v>6</v>
       </c>
@@ -3404,13 +3994,19 @@
         <v>8</v>
       </c>
       <c r="I25">
-        <v>28.853000000000002</v>
+        <v>24.158999999999999</v>
       </c>
       <c r="J25">
-        <v>582.91999999999996</v>
-      </c>
-    </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.3">
+        <v>556.84</v>
+      </c>
+      <c r="U25">
+        <v>437.06</v>
+      </c>
+      <c r="X25">
+        <v>33.680999999999997</v>
+      </c>
+    </row>
+    <row r="26" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B26">
         <v>11.837926</v>
       </c>
@@ -3421,77 +4017,176 @@
         <v>0.85</v>
       </c>
       <c r="I26">
-        <v>28.806999999999999</v>
+        <v>32.079000000000001</v>
       </c>
       <c r="J26">
+        <v>582.91999999999996</v>
+      </c>
+      <c r="U26">
+        <v>440.46700000000016</v>
+      </c>
+      <c r="V26">
+        <v>29.215</v>
+      </c>
+      <c r="W26">
+        <v>29.214999999998881</v>
+      </c>
+    </row>
+    <row r="27" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="I27">
+        <v>28.483000000000001</v>
+      </c>
+      <c r="J27">
         <v>587.83000000000004</v>
       </c>
-    </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="I27">
-        <v>28.202999999999999</v>
-      </c>
-      <c r="J27">
+      <c r="U27">
+        <v>448.47</v>
+      </c>
+      <c r="X27">
+        <v>31.643999999999998</v>
+      </c>
+    </row>
+    <row r="28" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="I28">
+        <v>23.975000000000001</v>
+      </c>
+      <c r="J28">
         <v>607.03</v>
       </c>
-    </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="I28">
-        <v>27.666</v>
-      </c>
-      <c r="J28">
+      <c r="U28">
+        <v>462.22</v>
+      </c>
+      <c r="X28">
+        <v>25.026</v>
+      </c>
+    </row>
+    <row r="29" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="I29">
+        <v>23.911999999999999</v>
+      </c>
+      <c r="J29">
         <v>630.26</v>
       </c>
-    </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="I29">
-        <v>27.329000000000001</v>
-      </c>
-      <c r="J29">
+      <c r="U29">
+        <v>477.84200000000101</v>
+      </c>
+      <c r="V29">
+        <v>37.375</v>
+      </c>
+      <c r="W29">
+        <v>37.375000000000824</v>
+      </c>
+    </row>
+    <row r="30" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="I30">
+        <v>24.965</v>
+      </c>
+      <c r="J30">
         <v>637</v>
       </c>
-    </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="I30">
-        <v>26.797999999999998</v>
-      </c>
-      <c r="J30">
+      <c r="U30">
+        <v>483.48</v>
+      </c>
+      <c r="X30">
+        <v>31.553999999999998</v>
+      </c>
+    </row>
+    <row r="31" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="I31">
+        <v>23.082999999999998</v>
+      </c>
+      <c r="J31">
         <v>653.49</v>
       </c>
-    </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="I31">
-        <v>26.331</v>
-      </c>
-      <c r="J31">
+      <c r="U31">
+        <v>498.2</v>
+      </c>
+      <c r="X31">
+        <v>32.5</v>
+      </c>
+    </row>
+    <row r="32" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="I32">
+        <v>23.059000000000001</v>
+      </c>
+      <c r="J32">
         <v>664.75</v>
       </c>
-    </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="I32">
-        <v>25.898</v>
-      </c>
-      <c r="J32">
+      <c r="U32">
+        <v>502.1600000000002</v>
+      </c>
+      <c r="V32">
+        <v>24.318000000000001</v>
+      </c>
+      <c r="W32">
+        <v>24.317999999999174</v>
+      </c>
+    </row>
+    <row r="33" spans="3:24" x14ac:dyDescent="0.3">
+      <c r="I33">
+        <v>22.873000000000001</v>
+      </c>
+      <c r="J33">
         <v>687.78</v>
       </c>
-    </row>
-    <row r="33" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="I33">
-        <v>25.672999999999998</v>
-      </c>
-      <c r="J33">
+      <c r="U33">
+        <v>509.73</v>
+      </c>
+      <c r="X33">
+        <v>26.13</v>
+      </c>
+    </row>
+    <row r="34" spans="3:24" x14ac:dyDescent="0.3">
+      <c r="I34">
+        <v>24.097000000000001</v>
+      </c>
+      <c r="J34">
         <v>712.05</v>
       </c>
-    </row>
-    <row r="34" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="I34">
-        <v>26.856999999999999</v>
-      </c>
-      <c r="J34">
+      <c r="U34">
+        <v>525.49</v>
+      </c>
+      <c r="X34">
+        <v>23.756</v>
+      </c>
+    </row>
+    <row r="35" spans="3:24" x14ac:dyDescent="0.3">
+      <c r="I35">
+        <v>35.146999999999998</v>
+      </c>
+      <c r="J35">
         <v>727.75</v>
       </c>
-    </row>
-    <row r="38" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="U35">
+        <v>538.29800000000125</v>
+      </c>
+      <c r="V35">
+        <v>36.137999999999998</v>
+      </c>
+      <c r="W35">
+        <v>36.138000000001114</v>
+      </c>
+    </row>
+    <row r="36" spans="3:24" x14ac:dyDescent="0.3">
+      <c r="U36">
+        <v>556.84</v>
+      </c>
+      <c r="X36">
+        <v>24.158999999999999</v>
+      </c>
+    </row>
+    <row r="37" spans="3:24" x14ac:dyDescent="0.3">
+      <c r="U37">
+        <v>565.5859999999999</v>
+      </c>
+      <c r="V37">
+        <v>27.288</v>
+      </c>
+      <c r="W37">
+        <v>27.287999999998647</v>
+      </c>
+    </row>
+    <row r="38" spans="3:24" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>11</v>
       </c>
@@ -3510,8 +4205,14 @@
       <c r="J38" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="39" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="U38">
+        <v>582.91999999999996</v>
+      </c>
+      <c r="X38">
+        <v>32.079000000000001</v>
+      </c>
+    </row>
+    <row r="39" spans="3:24" x14ac:dyDescent="0.3">
       <c r="C39">
         <v>48.960999999999999</v>
       </c>
@@ -3532,13 +4233,19 @@
       <c r="J39">
         <v>82.01</v>
       </c>
-    </row>
-    <row r="40" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="U39">
+        <v>587.83000000000004</v>
+      </c>
+      <c r="X39">
+        <v>28.483000000000001</v>
+      </c>
+    </row>
+    <row r="40" spans="3:24" x14ac:dyDescent="0.3">
       <c r="C40">
         <v>40.648000000000003</v>
       </c>
       <c r="D40">
-        <f>(E40-E39)*1000</f>
+        <f t="shared" ref="D40:D55" si="1">(E40-E39)*1000</f>
         <v>40.648000000000906</v>
       </c>
       <c r="E40">
@@ -3549,18 +4256,27 @@
         <v>321.71900000000107</v>
       </c>
       <c r="I40">
-        <v>45.125</v>
+        <v>32</v>
       </c>
       <c r="J40">
         <v>265.45</v>
       </c>
-    </row>
-    <row r="41" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="U40">
+        <v>597.75400000000036</v>
+      </c>
+      <c r="V40">
+        <v>32.167999999999999</v>
+      </c>
+      <c r="W40">
+        <v>32.168000000000418</v>
+      </c>
+    </row>
+    <row r="41" spans="3:24" x14ac:dyDescent="0.3">
       <c r="C41">
         <v>30.071999999999999</v>
       </c>
       <c r="D41">
-        <f>(E41-E40)*1000</f>
+        <f t="shared" si="1"/>
         <v>30.071999999998766</v>
       </c>
       <c r="E41">
@@ -3571,18 +4287,24 @@
         <v>351.79099999999983</v>
       </c>
       <c r="I41">
-        <v>43.484000000000002</v>
+        <v>32</v>
       </c>
       <c r="J41">
         <v>266.37</v>
       </c>
-    </row>
-    <row r="42" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="U41">
+        <v>607.03</v>
+      </c>
+      <c r="X41">
+        <v>23.975000000000001</v>
+      </c>
+    </row>
+    <row r="42" spans="3:24" x14ac:dyDescent="0.3">
       <c r="C42">
         <v>28.850999999999999</v>
       </c>
       <c r="D42">
-        <f>(E42-E41)*1000</f>
+        <f t="shared" si="1"/>
         <v>28.851000000001292</v>
       </c>
       <c r="E42">
@@ -3592,22 +4314,22 @@
         <f>(E42-E61)*1000+G61</f>
         <v>380.64200000000113</v>
       </c>
-      <c r="H42" t="s">
-        <v>12</v>
-      </c>
-      <c r="I42">
-        <v>43.484000000000002</v>
-      </c>
-      <c r="J42">
-        <v>781.36900000000003</v>
-      </c>
-    </row>
-    <row r="43" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="U42">
+        <v>627.11500000000012</v>
+      </c>
+      <c r="V42">
+        <v>29.361000000000001</v>
+      </c>
+      <c r="W42">
+        <v>29.360999999999748</v>
+      </c>
+    </row>
+    <row r="43" spans="3:24" x14ac:dyDescent="0.3">
       <c r="C43">
         <v>33.529000000000003</v>
       </c>
       <c r="D43">
-        <f>(E43-E42)*1000</f>
+        <f t="shared" si="1"/>
         <v>33.528999999999698</v>
       </c>
       <c r="E43">
@@ -3617,13 +4339,19 @@
         <f>(E43-E61)*1000+G61</f>
         <v>414.17100000000084</v>
       </c>
-    </row>
-    <row r="44" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="U43">
+        <v>630.26</v>
+      </c>
+      <c r="X43">
+        <v>23.911999999999999</v>
+      </c>
+    </row>
+    <row r="44" spans="3:24" x14ac:dyDescent="0.3">
       <c r="C44">
         <v>28.562000000000001</v>
       </c>
       <c r="D44">
-        <f>(E44-E43)*1000</f>
+        <f t="shared" si="1"/>
         <v>28.561999999999088</v>
       </c>
       <c r="E44">
@@ -3633,13 +4361,19 @@
         <f>(E44-E61)*1000+G61</f>
         <v>442.73299999999989</v>
       </c>
-    </row>
-    <row r="45" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="U44">
+        <v>637</v>
+      </c>
+      <c r="X44">
+        <v>24.965</v>
+      </c>
+    </row>
+    <row r="45" spans="3:24" x14ac:dyDescent="0.3">
       <c r="C45">
         <v>36.569000000000003</v>
       </c>
       <c r="D45">
-        <f>(E45-E44)*1000</f>
+        <f t="shared" si="1"/>
         <v>36.569000000000074</v>
       </c>
       <c r="E45">
@@ -3649,13 +4383,19 @@
         <f>(E45-E61)*1000+G61</f>
         <v>479.30199999999996</v>
       </c>
-    </row>
-    <row r="46" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="U45">
+        <v>653.49</v>
+      </c>
+      <c r="X45">
+        <v>23.082999999999998</v>
+      </c>
+    </row>
+    <row r="46" spans="3:24" x14ac:dyDescent="0.3">
       <c r="C46">
         <v>26.071000000000002</v>
       </c>
       <c r="D46">
-        <f>(E46-E45)*1000</f>
+        <f t="shared" si="1"/>
         <v>26.070999999999955</v>
       </c>
       <c r="E46">
@@ -3665,13 +4405,19 @@
         <f>(E46-E61)*1000+G61</f>
         <v>505.37299999999993</v>
       </c>
-    </row>
-    <row r="47" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="U46">
+        <v>664.75</v>
+      </c>
+      <c r="X46">
+        <v>23.059000000000001</v>
+      </c>
+    </row>
+    <row r="47" spans="3:24" x14ac:dyDescent="0.3">
       <c r="C47">
         <v>36.28</v>
       </c>
       <c r="D47">
-        <f>(E47-E46)*1000</f>
+        <f t="shared" si="1"/>
         <v>36.279999999999646</v>
       </c>
       <c r="E47">
@@ -3681,13 +4427,22 @@
         <f>(E47-E61)*1000+G61</f>
         <v>541.65299999999968</v>
       </c>
-    </row>
-    <row r="48" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="U47">
+        <v>670.29100000000085</v>
+      </c>
+      <c r="V47">
+        <v>43.176000000000002</v>
+      </c>
+      <c r="W47">
+        <v>43.176000000000769</v>
+      </c>
+    </row>
+    <row r="48" spans="3:24" x14ac:dyDescent="0.3">
       <c r="C48">
         <v>27.32</v>
       </c>
       <c r="D48">
-        <f>(E48-E47)*1000</f>
+        <f t="shared" si="1"/>
         <v>27.320000000001343</v>
       </c>
       <c r="E48">
@@ -3697,13 +4452,19 @@
         <f>(E48-E61)*1000+G61</f>
         <v>568.97300000000098</v>
       </c>
-    </row>
-    <row r="49" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="U48">
+        <v>687.78</v>
+      </c>
+      <c r="X48">
+        <v>22.873000000000001</v>
+      </c>
+    </row>
+    <row r="49" spans="2:24" x14ac:dyDescent="0.3">
       <c r="C49">
         <v>31.009</v>
       </c>
       <c r="D49">
-        <f>(E49-E48)*1000</f>
+        <f t="shared" si="1"/>
         <v>31.008999999999176</v>
       </c>
       <c r="E49">
@@ -3713,13 +4474,22 @@
         <f>(E49-E61)*1000+G61</f>
         <v>599.9820000000002</v>
       </c>
-    </row>
-    <row r="50" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="U49">
+        <v>693.47200000000009</v>
+      </c>
+      <c r="V49">
+        <v>23.181000000000001</v>
+      </c>
+      <c r="W49">
+        <v>23.18099999999923</v>
+      </c>
+    </row>
+    <row r="50" spans="2:24" x14ac:dyDescent="0.3">
       <c r="C50">
         <v>30.870999999999999</v>
       </c>
       <c r="D50">
-        <f>(E50-E49)*1000</f>
+        <f t="shared" si="1"/>
         <v>30.870999999999427</v>
       </c>
       <c r="E50">
@@ -3729,13 +4499,19 @@
         <f>(E50-E61)*1000+G61</f>
         <v>630.85299999999961</v>
       </c>
-    </row>
-    <row r="51" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="U50">
+        <v>712.05</v>
+      </c>
+      <c r="X50">
+        <v>24.097000000000001</v>
+      </c>
+    </row>
+    <row r="51" spans="2:24" x14ac:dyDescent="0.3">
       <c r="C51">
         <v>42.439</v>
       </c>
       <c r="D51">
-        <f>(E51-E50)*1000</f>
+        <f t="shared" si="1"/>
         <v>42.43900000000167</v>
       </c>
       <c r="E51">
@@ -3745,13 +4521,19 @@
         <f>(E51-E61)*1000+G61</f>
         <v>673.29200000000128</v>
       </c>
-    </row>
-    <row r="52" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="U51">
+        <v>727.75</v>
+      </c>
+      <c r="X51">
+        <v>35.146999999999998</v>
+      </c>
+    </row>
+    <row r="52" spans="2:24" x14ac:dyDescent="0.3">
       <c r="C52">
         <v>24.007000000000001</v>
       </c>
       <c r="D52">
-        <f>(E52-E51)*1000</f>
+        <f t="shared" si="1"/>
         <v>24.006999999999223</v>
       </c>
       <c r="E52">
@@ -3761,13 +4543,22 @@
         <f>(E52-E61)*1000+G61</f>
         <v>697.29900000000043</v>
       </c>
-    </row>
-    <row r="53" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="U52">
+        <v>727.89900000000091</v>
+      </c>
+      <c r="V52">
+        <v>34.427</v>
+      </c>
+      <c r="W52">
+        <v>34.427000000000874</v>
+      </c>
+    </row>
+    <row r="53" spans="2:24" x14ac:dyDescent="0.3">
       <c r="C53">
         <v>34.354999999999997</v>
       </c>
       <c r="D53">
-        <f>(E53-E52)*1000</f>
+        <f t="shared" si="1"/>
         <v>34.354999999999691</v>
       </c>
       <c r="E53">
@@ -3777,13 +4568,22 @@
         <f>(E53-E61)*1000+G61</f>
         <v>731.65400000000022</v>
       </c>
-    </row>
-    <row r="54" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="U53">
+        <v>752.09500000000082</v>
+      </c>
+      <c r="V53">
+        <v>24.196000000000002</v>
+      </c>
+      <c r="W53">
+        <v>24.195999999999884</v>
+      </c>
+    </row>
+    <row r="54" spans="2:24" x14ac:dyDescent="0.3">
       <c r="C54">
         <v>23.366</v>
       </c>
       <c r="D54">
-        <f>(E54-E53)*1000</f>
+        <f t="shared" si="1"/>
         <v>23.366000000001108</v>
       </c>
       <c r="E54">
@@ -3794,12 +4594,12 @@
         <v>755.02000000000135</v>
       </c>
     </row>
-    <row r="55" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:24" x14ac:dyDescent="0.3">
       <c r="C55">
         <v>26.349</v>
       </c>
       <c r="D55">
-        <f>(E55-E54)*1000</f>
+        <f t="shared" si="1"/>
         <v>26.348999999999734</v>
       </c>
       <c r="E55">
@@ -3810,25 +4610,28 @@
         <v>781.36900000000105</v>
       </c>
     </row>
-    <row r="56" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B56" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="57" spans="2:14" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="57" spans="2:24" x14ac:dyDescent="0.3">
       <c r="L57" s="2"/>
       <c r="M57" s="2"/>
     </row>
-    <row r="58" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:24" x14ac:dyDescent="0.3">
       <c r="L58" s="2"/>
       <c r="M58" s="2"/>
     </row>
-    <row r="59" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="K59" t="s">
+        <v>15</v>
+      </c>
       <c r="L59" s="2"/>
       <c r="M59" s="2"/>
       <c r="N59" s="1"/>
     </row>
-    <row r="60" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B60" t="s">
         <v>9</v>
       </c>
@@ -3838,11 +4641,20 @@
       <c r="G60" t="s">
         <v>8</v>
       </c>
-      <c r="L60" s="2"/>
-      <c r="M60" s="2"/>
-      <c r="N60" s="1"/>
-    </row>
-    <row r="61" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="K60" t="s">
+        <v>13</v>
+      </c>
+      <c r="L60" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="M60" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="N60" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="61" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B61">
         <v>11.992937</v>
       </c>
@@ -3852,74 +4664,231 @@
       <c r="G61">
         <v>27.2</v>
       </c>
-      <c r="L61" s="2"/>
-      <c r="M61" s="2"/>
-      <c r="N61" s="1"/>
-    </row>
-    <row r="62" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="L62" s="2"/>
-      <c r="M62" s="2"/>
-      <c r="N62" s="1"/>
-    </row>
-    <row r="63" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="L63" s="2"/>
-      <c r="M63" s="2"/>
-      <c r="N63" s="1"/>
-    </row>
-    <row r="64" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="L64" s="2"/>
-      <c r="M64" s="2"/>
-      <c r="N64" s="1"/>
-    </row>
-    <row r="65" spans="12:14" x14ac:dyDescent="0.3">
-      <c r="L65" s="2"/>
-      <c r="M65" s="2"/>
-      <c r="N65" s="1"/>
-    </row>
-    <row r="66" spans="12:14" x14ac:dyDescent="0.3">
-      <c r="L66" s="2"/>
-      <c r="M66" s="2"/>
-      <c r="N66" s="1"/>
-    </row>
-    <row r="67" spans="12:14" x14ac:dyDescent="0.3">
-      <c r="L67" s="2"/>
-      <c r="M67" s="2"/>
+      <c r="K61">
+        <v>82.01</v>
+      </c>
+      <c r="N61">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="62" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="K62">
+        <v>265.45</v>
+      </c>
+      <c r="N62">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="63" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="K63">
+        <v>266.37</v>
+      </c>
+      <c r="N63">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="64" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="K64">
+        <v>281.0710000000002</v>
+      </c>
+      <c r="L64">
+        <v>48.960999999999999</v>
+      </c>
+      <c r="M64" s="2">
+        <v>48.961000000000254</v>
+      </c>
+    </row>
+    <row r="65" spans="11:14" x14ac:dyDescent="0.3">
+      <c r="K65">
+        <v>321.71900000000107</v>
+      </c>
+      <c r="L65">
+        <v>40.648000000000003</v>
+      </c>
+      <c r="M65" s="2">
+        <v>40.648000000000906</v>
+      </c>
+    </row>
+    <row r="66" spans="11:14" x14ac:dyDescent="0.3">
+      <c r="K66">
+        <v>351.79099999999983</v>
+      </c>
+      <c r="L66">
+        <v>30.071999999999999</v>
+      </c>
+      <c r="M66" s="2">
+        <v>30.071999999998766</v>
+      </c>
+    </row>
+    <row r="67" spans="11:14" x14ac:dyDescent="0.3">
+      <c r="K67">
+        <v>380.64200000000113</v>
+      </c>
+      <c r="L67">
+        <v>28.850999999999999</v>
+      </c>
+      <c r="M67" s="2">
+        <v>28.851000000001292</v>
+      </c>
       <c r="N67" s="1"/>
     </row>
-    <row r="68" spans="12:14" x14ac:dyDescent="0.3">
-      <c r="L68" s="2"/>
-      <c r="M68" s="2"/>
+    <row r="68" spans="11:14" x14ac:dyDescent="0.3">
+      <c r="K68">
+        <v>414.17100000000084</v>
+      </c>
+      <c r="L68">
+        <v>33.529000000000003</v>
+      </c>
+      <c r="M68" s="2">
+        <v>33.528999999999698</v>
+      </c>
       <c r="N68" s="1"/>
     </row>
-    <row r="69" spans="12:14" x14ac:dyDescent="0.3">
-      <c r="L69" s="2"/>
-      <c r="M69" s="2"/>
+    <row r="69" spans="11:14" x14ac:dyDescent="0.3">
+      <c r="K69">
+        <v>442.73299999999989</v>
+      </c>
+      <c r="L69">
+        <v>28.562000000000001</v>
+      </c>
+      <c r="M69" s="2">
+        <v>28.561999999999088</v>
+      </c>
       <c r="N69" s="1"/>
     </row>
-    <row r="70" spans="12:14" x14ac:dyDescent="0.3">
-      <c r="L70" s="2"/>
-      <c r="M70" s="2"/>
+    <row r="70" spans="11:14" x14ac:dyDescent="0.3">
+      <c r="K70">
+        <v>479.30199999999996</v>
+      </c>
+      <c r="L70">
+        <v>36.569000000000003</v>
+      </c>
+      <c r="M70" s="2">
+        <v>36.569000000000074</v>
+      </c>
       <c r="N70" s="1"/>
     </row>
-    <row r="71" spans="12:14" x14ac:dyDescent="0.3">
-      <c r="L71" s="2"/>
-      <c r="M71" s="2"/>
+    <row r="71" spans="11:14" x14ac:dyDescent="0.3">
+      <c r="K71">
+        <v>505.37299999999993</v>
+      </c>
+      <c r="L71">
+        <v>26.071000000000002</v>
+      </c>
+      <c r="M71" s="2">
+        <v>26.070999999999955</v>
+      </c>
       <c r="N71" s="1"/>
     </row>
-    <row r="72" spans="12:14" x14ac:dyDescent="0.3">
-      <c r="L72" s="2"/>
-      <c r="M72" s="2"/>
+    <row r="72" spans="11:14" x14ac:dyDescent="0.3">
+      <c r="K72">
+        <v>541.65299999999968</v>
+      </c>
+      <c r="L72">
+        <v>36.28</v>
+      </c>
+      <c r="M72" s="2">
+        <v>36.279999999999646</v>
+      </c>
       <c r="N72" s="1"/>
     </row>
-    <row r="73" spans="12:14" x14ac:dyDescent="0.3">
-      <c r="L73" s="2"/>
-      <c r="M73" s="2"/>
+    <row r="73" spans="11:14" x14ac:dyDescent="0.3">
+      <c r="K73">
+        <v>568.97300000000098</v>
+      </c>
+      <c r="L73">
+        <v>27.32</v>
+      </c>
+      <c r="M73" s="2">
+        <v>27.320000000001343</v>
+      </c>
       <c r="N73" s="1"/>
     </row>
-    <row r="74" spans="12:14" x14ac:dyDescent="0.3">
+    <row r="74" spans="11:14" x14ac:dyDescent="0.3">
+      <c r="K74">
+        <v>599.9820000000002</v>
+      </c>
+      <c r="L74">
+        <v>31.009</v>
+      </c>
+      <c r="M74" s="2">
+        <v>31.008999999999176</v>
+      </c>
       <c r="N74" s="1"/>
     </row>
+    <row r="75" spans="11:14" x14ac:dyDescent="0.3">
+      <c r="K75">
+        <v>630.85299999999961</v>
+      </c>
+      <c r="L75">
+        <v>30.870999999999999</v>
+      </c>
+      <c r="M75" s="2">
+        <v>30.870999999999427</v>
+      </c>
+      <c r="N75" s="1"/>
+    </row>
+    <row r="76" spans="11:14" x14ac:dyDescent="0.3">
+      <c r="K76">
+        <v>673.29200000000128</v>
+      </c>
+      <c r="L76">
+        <v>42.439</v>
+      </c>
+      <c r="M76" s="2">
+        <v>42.43900000000167</v>
+      </c>
+      <c r="N76" s="1"/>
+    </row>
+    <row r="77" spans="11:14" x14ac:dyDescent="0.3">
+      <c r="K77">
+        <v>697.29900000000043</v>
+      </c>
+      <c r="L77">
+        <v>24.007000000000001</v>
+      </c>
+      <c r="M77">
+        <v>24.006999999999223</v>
+      </c>
+      <c r="N77" s="1"/>
+    </row>
+    <row r="78" spans="11:14" x14ac:dyDescent="0.3">
+      <c r="K78">
+        <v>731.65400000000022</v>
+      </c>
+      <c r="L78">
+        <v>34.354999999999997</v>
+      </c>
+      <c r="M78">
+        <v>34.354999999999691</v>
+      </c>
+    </row>
+    <row r="79" spans="11:14" x14ac:dyDescent="0.3">
+      <c r="K79">
+        <v>755.02000000000135</v>
+      </c>
+      <c r="L79">
+        <v>23.366</v>
+      </c>
+      <c r="M79">
+        <v>23.366000000001108</v>
+      </c>
+    </row>
+    <row r="80" spans="11:14" x14ac:dyDescent="0.3">
+      <c r="K80">
+        <v>781.36900000000105</v>
+      </c>
+      <c r="L80">
+        <v>26.349</v>
+      </c>
+      <c r="M80">
+        <v>26.348999999999734</v>
+      </c>
+    </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="U5:X53">
+    <sortCondition ref="U5:U53"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
   <drawing r:id="rId2"/>
